--- a/data/pca/factorExposure/factorExposure_2017-08-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02381366846371966</v>
+        <v>-0.01004686844204051</v>
       </c>
       <c r="C2">
-        <v>0.0005625745154937326</v>
+        <v>-0.04400966595605098</v>
       </c>
       <c r="D2">
-        <v>0.01690281751806133</v>
+        <v>-0.02968787902183407</v>
       </c>
       <c r="E2">
-        <v>0.01057008501769094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03307448418255041</v>
+      </c>
+      <c r="F2">
+        <v>-0.01015221116568388</v>
+      </c>
+      <c r="G2">
+        <v>0.07400591088168516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01584074967565356</v>
+        <v>-0.05700726288980904</v>
       </c>
       <c r="C3">
-        <v>0.05162970055639279</v>
+        <v>-0.06938777151297204</v>
       </c>
       <c r="D3">
-        <v>-0.003043283647695183</v>
+        <v>-0.01493973855936156</v>
       </c>
       <c r="E3">
-        <v>-0.01494244712453007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1019741815911357</v>
+      </c>
+      <c r="F3">
+        <v>-0.0331033282362409</v>
+      </c>
+      <c r="G3">
+        <v>0.1638497717310685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02361693410697761</v>
+        <v>-0.06040786006535868</v>
       </c>
       <c r="C4">
-        <v>0.02033158100841876</v>
+        <v>-0.06327191977223796</v>
       </c>
       <c r="D4">
-        <v>0.06306387957238771</v>
+        <v>-0.02330349837362811</v>
       </c>
       <c r="E4">
-        <v>-0.01163126339292652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02147312606523917</v>
+      </c>
+      <c r="F4">
+        <v>-0.006454640624047913</v>
+      </c>
+      <c r="G4">
+        <v>0.073685335982035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01509412063215555</v>
+        <v>-0.04146067898073093</v>
       </c>
       <c r="C6">
-        <v>0.009924076241977662</v>
+        <v>-0.05281603382128175</v>
       </c>
       <c r="D6">
-        <v>0.08839686099815332</v>
+        <v>-0.01569897244669667</v>
       </c>
       <c r="E6">
-        <v>-0.004676024594795975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01996059798785988</v>
+      </c>
+      <c r="F6">
+        <v>-0.01124294318939536</v>
+      </c>
+      <c r="G6">
+        <v>0.04912134096942156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0105851981576792</v>
+        <v>-0.02024981036325262</v>
       </c>
       <c r="C7">
-        <v>0.006459604766717482</v>
+        <v>-0.04069503439413264</v>
       </c>
       <c r="D7">
-        <v>0.03721897765384249</v>
+        <v>-0.01317858919565216</v>
       </c>
       <c r="E7">
-        <v>-0.06073073216913196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.00568601423784655</v>
+      </c>
+      <c r="F7">
+        <v>0.003124154657986354</v>
+      </c>
+      <c r="G7">
+        <v>0.1140357584488498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-1.169601146349855e-05</v>
+        <v>-0.001519635460931666</v>
       </c>
       <c r="C8">
-        <v>0.0007457229424510649</v>
+        <v>-0.02055720239529366</v>
       </c>
       <c r="D8">
-        <v>0.001596821366608636</v>
+        <v>-0.003692374365318505</v>
       </c>
       <c r="E8">
-        <v>-0.01106162822062352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02291974375683818</v>
+      </c>
+      <c r="F8">
+        <v>-0.0168495259384999</v>
+      </c>
+      <c r="G8">
+        <v>0.04743875554395973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01641194518293092</v>
+        <v>-0.03580207801153482</v>
       </c>
       <c r="C9">
-        <v>0.02092421339832548</v>
+        <v>-0.04350059953683937</v>
       </c>
       <c r="D9">
-        <v>0.04619690443692864</v>
+        <v>-0.01594057594441067</v>
       </c>
       <c r="E9">
-        <v>-0.003410259418194982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01531396257223324</v>
+      </c>
+      <c r="F9">
+        <v>-0.01278294818351713</v>
+      </c>
+      <c r="G9">
+        <v>0.07809634757617283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02016277515488155</v>
+        <v>-0.09096298913267993</v>
       </c>
       <c r="C10">
-        <v>0.1636170044447554</v>
+        <v>0.1857552320665188</v>
       </c>
       <c r="D10">
-        <v>-0.1120818402152565</v>
+        <v>0.01682258997384185</v>
       </c>
       <c r="E10">
-        <v>-0.003974586210506574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01221927756916596</v>
+      </c>
+      <c r="F10">
+        <v>0.01956744955961194</v>
+      </c>
+      <c r="G10">
+        <v>0.05188049577583888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007582536498591158</v>
+        <v>-0.03572743821346001</v>
       </c>
       <c r="C11">
-        <v>0.007192156053216544</v>
+        <v>-0.05355446410837958</v>
       </c>
       <c r="D11">
-        <v>0.03943856223836085</v>
+        <v>-0.002245730933147816</v>
       </c>
       <c r="E11">
-        <v>0.005615263296851396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008363017041730663</v>
+      </c>
+      <c r="F11">
+        <v>-0.02118453513158183</v>
+      </c>
+      <c r="G11">
+        <v>0.05981367302771992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006359709923897403</v>
+        <v>-0.03715369052595734</v>
       </c>
       <c r="C12">
-        <v>0.0132566449413145</v>
+        <v>-0.04814467298447451</v>
       </c>
       <c r="D12">
-        <v>0.04309824587135957</v>
+        <v>-0.006138628998895309</v>
       </c>
       <c r="E12">
-        <v>-0.004140253782484093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0008348240055843271</v>
+      </c>
+      <c r="F12">
+        <v>-0.00247787916612084</v>
+      </c>
+      <c r="G12">
+        <v>0.05526607450256617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02259513998695175</v>
+        <v>-0.01820271781862705</v>
       </c>
       <c r="C13">
-        <v>0.01543298015185625</v>
+        <v>-0.03511718392221241</v>
       </c>
       <c r="D13">
-        <v>0.007619234309144929</v>
+        <v>-0.02536219558737556</v>
       </c>
       <c r="E13">
-        <v>0.005763671691876784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02629557133605295</v>
+      </c>
+      <c r="F13">
+        <v>-0.005591389932991004</v>
+      </c>
+      <c r="G13">
+        <v>0.09192948038159716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00791090539072865</v>
+        <v>-0.01023022174575278</v>
       </c>
       <c r="C14">
-        <v>0.01454240755603512</v>
+        <v>-0.02649559235611454</v>
       </c>
       <c r="D14">
-        <v>0.0111319241153993</v>
+        <v>-0.008608002020061003</v>
       </c>
       <c r="E14">
-        <v>-0.01340452559495481</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.00354099983402389</v>
+      </c>
+      <c r="F14">
+        <v>0.008394744040938587</v>
+      </c>
+      <c r="G14">
+        <v>0.07924474694160111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001613006255915165</v>
+        <v>-0.03453854377604979</v>
       </c>
       <c r="C16">
-        <v>0.01319844278411746</v>
+        <v>-0.04729992885053792</v>
       </c>
       <c r="D16">
-        <v>0.04606969405477407</v>
+        <v>-0.001831889670010301</v>
       </c>
       <c r="E16">
-        <v>-0.003397271765756909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.00721944401524975</v>
+      </c>
+      <c r="F16">
+        <v>-0.002957999290951459</v>
+      </c>
+      <c r="G16">
+        <v>0.06405112102561678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01425318852336124</v>
+        <v>-0.02693994057249361</v>
       </c>
       <c r="C19">
-        <v>0.02386811120699815</v>
+        <v>-0.05045167601556926</v>
       </c>
       <c r="D19">
-        <v>0.0169503466150015</v>
+        <v>-0.01674576756313182</v>
       </c>
       <c r="E19">
-        <v>-0.01230311971270461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05812745705734806</v>
+      </c>
+      <c r="F19">
+        <v>-0.01603819590610825</v>
+      </c>
+      <c r="G19">
+        <v>0.1041289379579094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01111135780111128</v>
+        <v>-0.01631327792657441</v>
       </c>
       <c r="C20">
-        <v>0.009275125219540917</v>
+        <v>-0.0349714130800921</v>
       </c>
       <c r="D20">
-        <v>0.007521132684718505</v>
+        <v>-0.0133115195881526</v>
       </c>
       <c r="E20">
-        <v>0.001070151233388733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02682780623699354</v>
+      </c>
+      <c r="F20">
+        <v>0.006412184972420151</v>
+      </c>
+      <c r="G20">
+        <v>0.08138027348284038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01504797475793674</v>
+        <v>-0.01660062139644811</v>
       </c>
       <c r="C21">
-        <v>0.02340251026508908</v>
+        <v>-0.03734966922389323</v>
       </c>
       <c r="D21">
-        <v>0.02243844184462345</v>
+        <v>-0.01708097393582369</v>
       </c>
       <c r="E21">
-        <v>-0.0134749131344412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03681449696288597</v>
+      </c>
+      <c r="F21">
+        <v>0.001165275408404792</v>
+      </c>
+      <c r="G21">
+        <v>0.1091958973775506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004556232663165549</v>
+        <v>-0.02836916085124067</v>
       </c>
       <c r="C24">
-        <v>0.001771052977855216</v>
+        <v>-0.05052190538518132</v>
       </c>
       <c r="D24">
-        <v>0.04158595692967652</v>
+        <v>-0.007304122972894346</v>
       </c>
       <c r="E24">
-        <v>0.000539123603422208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004983143506479976</v>
+      </c>
+      <c r="F24">
+        <v>-0.01575133285602177</v>
+      </c>
+      <c r="G24">
+        <v>0.06360065401987652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01214346792033582</v>
+        <v>-0.04322913969230223</v>
       </c>
       <c r="C25">
-        <v>0.01791351273621729</v>
+        <v>-0.05695182946429666</v>
       </c>
       <c r="D25">
-        <v>0.04355194840202994</v>
+        <v>-0.01124293422879703</v>
       </c>
       <c r="E25">
-        <v>0.0003897266359493877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.002854417861168663</v>
+      </c>
+      <c r="F25">
+        <v>-0.009693872559779191</v>
+      </c>
+      <c r="G25">
+        <v>0.06888867827768533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02311627621425094</v>
+        <v>-0.01630238040222619</v>
       </c>
       <c r="C26">
-        <v>0.01084455104995419</v>
+        <v>-0.008508332192452934</v>
       </c>
       <c r="D26">
-        <v>-0.008445543281996499</v>
+        <v>-0.02316336649552482</v>
       </c>
       <c r="E26">
-        <v>-0.01238676631040772</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002525345858987257</v>
+      </c>
+      <c r="F26">
+        <v>0.008333388724637951</v>
+      </c>
+      <c r="G26">
+        <v>0.06582962744666239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04263494832209373</v>
+        <v>-0.115079479953671</v>
       </c>
       <c r="C28">
-        <v>0.2351726040394663</v>
+        <v>0.234133369820487</v>
       </c>
       <c r="D28">
-        <v>-0.162896858665955</v>
+        <v>0.007752992711561127</v>
       </c>
       <c r="E28">
-        <v>-0.02437455192408866</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0006406811831973532</v>
+      </c>
+      <c r="F28">
+        <v>0.02086390813234238</v>
+      </c>
+      <c r="G28">
+        <v>0.06825884243237101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008263221067011347</v>
+        <v>-0.01258106448358483</v>
       </c>
       <c r="C29">
-        <v>0.01820176529755385</v>
+        <v>-0.02061117048378282</v>
       </c>
       <c r="D29">
-        <v>0.01013896761339023</v>
+        <v>-0.007407222800806929</v>
       </c>
       <c r="E29">
-        <v>-0.008000139144718654</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.005991156281077657</v>
+      </c>
+      <c r="F29">
+        <v>0.01724081088065588</v>
+      </c>
+      <c r="G29">
+        <v>0.06909750661887201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02369497942647527</v>
+        <v>-0.04830434682177381</v>
       </c>
       <c r="C30">
-        <v>0.005416720090453938</v>
+        <v>-0.06336120273840652</v>
       </c>
       <c r="D30">
-        <v>0.05637103891605294</v>
+        <v>-0.02774030917109909</v>
       </c>
       <c r="E30">
-        <v>0.05160803446772745</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04680225190255811</v>
+      </c>
+      <c r="F30">
+        <v>-0.04887749585116755</v>
+      </c>
+      <c r="G30">
+        <v>0.07073874172019511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.009751910166269659</v>
+        <v>-0.05399594392520499</v>
       </c>
       <c r="C31">
-        <v>0.04290454742450218</v>
+        <v>-0.03294184400370269</v>
       </c>
       <c r="D31">
-        <v>0.04098069449755729</v>
+        <v>-0.0031124617178061</v>
       </c>
       <c r="E31">
-        <v>-0.01051070776551885</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006490291390314672</v>
+      </c>
+      <c r="F31">
+        <v>0.03772488784134961</v>
+      </c>
+      <c r="G31">
+        <v>0.06538030336440202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00606872787423823</v>
+        <v>0.0002019171784508971</v>
       </c>
       <c r="C32">
-        <v>0.01899717063148328</v>
+        <v>-0.02868811012972927</v>
       </c>
       <c r="D32">
-        <v>-0.00587498270521369</v>
+        <v>0.004128376418878892</v>
       </c>
       <c r="E32">
-        <v>-0.04904128383048092</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01452256193275391</v>
+      </c>
+      <c r="F32">
+        <v>-0.03968877778612534</v>
+      </c>
+      <c r="G32">
+        <v>0.09148785454700052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01386413649390059</v>
+        <v>-0.02984815488617332</v>
       </c>
       <c r="C33">
-        <v>0.02645113794070416</v>
+        <v>-0.04736077497491419</v>
       </c>
       <c r="D33">
-        <v>0.01772994486376132</v>
+        <v>-0.01470887880937099</v>
       </c>
       <c r="E33">
-        <v>0.02548745774963602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03131873075642986</v>
+      </c>
+      <c r="F33">
+        <v>-0.01768518665051018</v>
+      </c>
+      <c r="G33">
+        <v>0.0994012591816584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.003945060881315519</v>
+        <v>-0.04064283282247939</v>
       </c>
       <c r="C34">
-        <v>0.01895238588652608</v>
+        <v>-0.06046649019139409</v>
       </c>
       <c r="D34">
-        <v>0.04738811045373995</v>
+        <v>0.004378364745765614</v>
       </c>
       <c r="E34">
-        <v>-0.007984706878730385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001210596889951353</v>
+      </c>
+      <c r="F34">
+        <v>-0.02226977883590484</v>
+      </c>
+      <c r="G34">
+        <v>0.07104666374787758</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01325564369017579</v>
+        <v>-0.01645657659303785</v>
       </c>
       <c r="C36">
-        <v>0.02237590230048018</v>
+        <v>-0.009296995625861334</v>
       </c>
       <c r="D36">
-        <v>0.001909227687857972</v>
+        <v>-0.01141668182411182</v>
       </c>
       <c r="E36">
-        <v>-0.004364602599983164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00077266610313672</v>
+      </c>
+      <c r="F36">
+        <v>0.009222876316168834</v>
+      </c>
+      <c r="G36">
+        <v>0.05848484331760732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.00321504641146205</v>
+        <v>-0.0337364402201962</v>
       </c>
       <c r="C38">
-        <v>0.03697819457009802</v>
+        <v>-0.02790347158330095</v>
       </c>
       <c r="D38">
-        <v>0.03091463845147135</v>
+        <v>0.007705020608601919</v>
       </c>
       <c r="E38">
-        <v>-0.004693992444576991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004694764062916259</v>
+      </c>
+      <c r="F38">
+        <v>0.01365012713799856</v>
+      </c>
+      <c r="G38">
+        <v>0.06652199928037308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005103806581815927</v>
+        <v>-0.03614141458007362</v>
       </c>
       <c r="C39">
-        <v>-0.0167665824684444</v>
+        <v>-0.08209452192636645</v>
       </c>
       <c r="D39">
-        <v>0.08732963115349153</v>
+        <v>-0.01198868135015198</v>
       </c>
       <c r="E39">
-        <v>0.01350835613816683</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02365951497215138</v>
+      </c>
+      <c r="F39">
+        <v>-0.0281820387336681</v>
+      </c>
+      <c r="G39">
+        <v>0.06612005406135554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01275278345331288</v>
+        <v>-0.02046598592159606</v>
       </c>
       <c r="C40">
-        <v>0.02354817700821464</v>
+        <v>-0.03315884446421748</v>
       </c>
       <c r="D40">
-        <v>0.02660828521566603</v>
+        <v>-0.01350309683662567</v>
       </c>
       <c r="E40">
-        <v>-0.003215774911808133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02065926183365621</v>
+      </c>
+      <c r="F40">
+        <v>-0.009076793818801552</v>
+      </c>
+      <c r="G40">
+        <v>0.07240146955699397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006332628981425477</v>
+        <v>-0.01690286197242227</v>
       </c>
       <c r="C41">
-        <v>0.02225712758493965</v>
+        <v>-0.00463843823640844</v>
       </c>
       <c r="D41">
-        <v>-0.00947598771256768</v>
+        <v>-0.00387978334982307</v>
       </c>
       <c r="E41">
-        <v>-0.004619064325689116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0009309267360714305</v>
+      </c>
+      <c r="F41">
+        <v>0.0125323187771848</v>
+      </c>
+      <c r="G41">
+        <v>0.04581281469508881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0933432299497836</v>
+        <v>-0.01284855289918172</v>
       </c>
       <c r="C42">
-        <v>-0.00379814837120124</v>
+        <v>-0.03763123324654431</v>
       </c>
       <c r="D42">
-        <v>0.2445494975339974</v>
+        <v>-0.09407391858522184</v>
       </c>
       <c r="E42">
-        <v>0.4074358275107798</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03257509118404139</v>
+      </c>
+      <c r="F42">
+        <v>0.03743048065999412</v>
+      </c>
+      <c r="G42">
+        <v>-0.1755210577244507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007839965144399481</v>
+        <v>-0.03327398183405268</v>
       </c>
       <c r="C43">
-        <v>0.02620209848745488</v>
+        <v>-0.01495697886023692</v>
       </c>
       <c r="D43">
-        <v>-0.01531025081143929</v>
+        <v>-0.00518589626718844</v>
       </c>
       <c r="E43">
-        <v>0.003682182812066784</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01170856732061775</v>
+      </c>
+      <c r="F43">
+        <v>0.004451194397506363</v>
+      </c>
+      <c r="G43">
+        <v>0.06835567810458555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003534155775716391</v>
+        <v>-0.01886741062032058</v>
       </c>
       <c r="C44">
-        <v>0.007916857431777283</v>
+        <v>-0.04863820548075759</v>
       </c>
       <c r="D44">
-        <v>0.02467508177878245</v>
+        <v>-0.005813767381991197</v>
       </c>
       <c r="E44">
-        <v>-0.003079387366976068</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01706901141936174</v>
+      </c>
+      <c r="F44">
+        <v>0.003935910886355112</v>
+      </c>
+      <c r="G44">
+        <v>0.0829382861403084</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01122120944702278</v>
+        <v>-0.009450399238476853</v>
       </c>
       <c r="C46">
-        <v>0.01594019384327398</v>
+        <v>-0.01697956927365279</v>
       </c>
       <c r="D46">
-        <v>0.009598529391188378</v>
+        <v>-0.01134155846886015</v>
       </c>
       <c r="E46">
-        <v>-0.002497532183032733</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.004827542302850368</v>
+      </c>
+      <c r="F46">
+        <v>0.0201514075227717</v>
+      </c>
+      <c r="G46">
+        <v>0.06888592208329138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004290825816569873</v>
+        <v>-0.07901812904165739</v>
       </c>
       <c r="C47">
-        <v>0.05476406838874248</v>
+        <v>-0.06344875359187978</v>
       </c>
       <c r="D47">
-        <v>0.05574198419761283</v>
+        <v>0.005369247903315582</v>
       </c>
       <c r="E47">
-        <v>-0.006139658821879816</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009811390349360979</v>
+      </c>
+      <c r="F47">
+        <v>0.05496024591919883</v>
+      </c>
+      <c r="G47">
+        <v>0.06289142590170026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004216202322536453</v>
+        <v>-0.02260011694588837</v>
       </c>
       <c r="C48">
-        <v>0.02797598431004933</v>
+        <v>-0.01040176507423689</v>
       </c>
       <c r="D48">
-        <v>0.009609672027735902</v>
+        <v>-0.0007071891504579305</v>
       </c>
       <c r="E48">
-        <v>-0.005215976231006938</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003241974750281374</v>
+      </c>
+      <c r="F48">
+        <v>0.0218399757060595</v>
+      </c>
+      <c r="G48">
+        <v>0.06612659317529884</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006187189527252746</v>
+        <v>-0.07950890794954145</v>
       </c>
       <c r="C50">
-        <v>0.05472275039759608</v>
+        <v>-0.06490658447274546</v>
       </c>
       <c r="D50">
-        <v>0.06180168112593707</v>
+        <v>0.003569760307080681</v>
       </c>
       <c r="E50">
-        <v>-0.03230613612614553</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01377304750409405</v>
+      </c>
+      <c r="F50">
+        <v>0.05891147069524008</v>
+      </c>
+      <c r="G50">
+        <v>0.07951750600400073</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007347146990898146</v>
+        <v>-0.01645280922964579</v>
       </c>
       <c r="C51">
-        <v>0.01682641223816406</v>
+        <v>-0.03188980020476082</v>
       </c>
       <c r="D51">
-        <v>-0.004179844092871438</v>
+        <v>-0.009384815599567314</v>
       </c>
       <c r="E51">
-        <v>-0.00645009495668589</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01403621683378115</v>
+      </c>
+      <c r="F51">
+        <v>-0.02325351407033854</v>
+      </c>
+      <c r="G51">
+        <v>0.09891830498128278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007631198473860864</v>
+        <v>-0.08595596682522523</v>
       </c>
       <c r="C53">
-        <v>0.06677113459681752</v>
+        <v>-0.07861561482068634</v>
       </c>
       <c r="D53">
-        <v>0.1182888250228829</v>
+        <v>0.004674824619364168</v>
       </c>
       <c r="E53">
-        <v>-0.003790832268086023</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03320237254996738</v>
+      </c>
+      <c r="F53">
+        <v>0.05920114984326764</v>
+      </c>
+      <c r="G53">
+        <v>0.04706510241194924</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001328752365927926</v>
+        <v>-0.03352050068330715</v>
       </c>
       <c r="C54">
-        <v>0.03565316655747062</v>
+        <v>-0.0138209322819659</v>
       </c>
       <c r="D54">
-        <v>-0.008788905501899242</v>
+        <v>0.002665472694785091</v>
       </c>
       <c r="E54">
-        <v>-0.01366873369645137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003404599288478329</v>
+      </c>
+      <c r="F54">
+        <v>0.008584126598407026</v>
+      </c>
+      <c r="G54">
+        <v>0.07389717116677061</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003934783100805792</v>
+        <v>-0.07497348689250315</v>
       </c>
       <c r="C55">
-        <v>0.04679952118963791</v>
+        <v>-0.06691771744827181</v>
       </c>
       <c r="D55">
-        <v>0.1018514286216127</v>
+        <v>0.005602716723743262</v>
       </c>
       <c r="E55">
-        <v>0.006375873624623788</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02643986705921361</v>
+      </c>
+      <c r="F55">
+        <v>0.05845335056673584</v>
+      </c>
+      <c r="G55">
+        <v>0.0313570138293855</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.006770886203450131</v>
+        <v>-0.1439862135831697</v>
       </c>
       <c r="C56">
-        <v>0.0935786560620146</v>
+        <v>-0.1011193242165182</v>
       </c>
       <c r="D56">
-        <v>0.1500996992625362</v>
+        <v>0.01296885654187904</v>
       </c>
       <c r="E56">
-        <v>0.006452837867637946</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03767820125473726</v>
+      </c>
+      <c r="F56">
+        <v>0.07524373118692819</v>
+      </c>
+      <c r="G56">
+        <v>0.008014460704950337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02430684467668655</v>
+        <v>-0.008519077546760128</v>
       </c>
       <c r="C57">
-        <v>0.01639189151813028</v>
+        <v>-0.008585947413995147</v>
       </c>
       <c r="D57">
-        <v>0.03900186035399685</v>
+        <v>-0.02366059571507978</v>
       </c>
       <c r="E57">
-        <v>0.0005843221878858865</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02807979220740247</v>
+      </c>
+      <c r="F57">
+        <v>-0.01192942385133247</v>
+      </c>
+      <c r="G57">
+        <v>0.03082658603466266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01573582585278661</v>
+        <v>-0.07796276816740383</v>
       </c>
       <c r="C58">
-        <v>0.09308246061477797</v>
+        <v>-0.03402307843826578</v>
       </c>
       <c r="D58">
-        <v>0.07974408867318857</v>
+        <v>-0.02000761335432311</v>
       </c>
       <c r="E58">
-        <v>0.2672882015410186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9391542985465164</v>
+      </c>
+      <c r="F58">
+        <v>0.2345015925650244</v>
+      </c>
+      <c r="G58">
+        <v>-0.08644052324109058</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.0398543307898928</v>
+        <v>-0.1545149113371697</v>
       </c>
       <c r="C59">
-        <v>0.251832453034936</v>
+        <v>0.2125784607268638</v>
       </c>
       <c r="D59">
-        <v>-0.1650164316157271</v>
+        <v>0.01409468998411614</v>
       </c>
       <c r="E59">
-        <v>-0.01401728555392975</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.008508888386284566</v>
+      </c>
+      <c r="F59">
+        <v>-0.001942279851115141</v>
+      </c>
+      <c r="G59">
+        <v>0.0372906574702465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04151150200422504</v>
+        <v>-0.2887701905952106</v>
       </c>
       <c r="C60">
-        <v>0.1641199972546951</v>
+        <v>-0.09419311047004807</v>
       </c>
       <c r="D60">
-        <v>0.07601875440427591</v>
+        <v>-0.01238222246321801</v>
       </c>
       <c r="E60">
-        <v>0.02445654642234235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.004000121984630249</v>
+      </c>
+      <c r="F60">
+        <v>-0.3478689167392365</v>
+      </c>
+      <c r="G60">
+        <v>-0.1277167280558988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00356018407539404</v>
+        <v>-0.03752240952422205</v>
       </c>
       <c r="C61">
-        <v>0.008389004230515517</v>
+        <v>-0.06531128793539447</v>
       </c>
       <c r="D61">
-        <v>0.06305271437266489</v>
+        <v>-0.005390280052332631</v>
       </c>
       <c r="E61">
-        <v>0.004124126083822043</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01188663216656435</v>
+      </c>
+      <c r="F61">
+        <v>-0.0174866933812503</v>
+      </c>
+      <c r="G61">
+        <v>0.05802930481702633</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007767563927036832</v>
+        <v>-0.01542637902623028</v>
       </c>
       <c r="C63">
-        <v>0.009231787316119056</v>
+        <v>-0.0287191230133656</v>
       </c>
       <c r="D63">
-        <v>0.00820161577670447</v>
+        <v>-0.007852022020314259</v>
       </c>
       <c r="E63">
-        <v>-0.008410434670510017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.003061156544813848</v>
+      </c>
+      <c r="F63">
+        <v>0.0184042836973281</v>
+      </c>
+      <c r="G63">
+        <v>0.06722976464137267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008739519378995045</v>
+        <v>-0.05053527550430504</v>
       </c>
       <c r="C64">
-        <v>0.03147548301591088</v>
+        <v>-0.04376574262052931</v>
       </c>
       <c r="D64">
-        <v>0.06273540665735272</v>
+        <v>-0.005634232510177256</v>
       </c>
       <c r="E64">
-        <v>0.01997675514842203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.004188957298298364</v>
+      </c>
+      <c r="F64">
+        <v>-0.002050845921822059</v>
+      </c>
+      <c r="G64">
+        <v>0.05044451691749893</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01699784700357914</v>
+        <v>-0.08242911006094444</v>
       </c>
       <c r="C65">
-        <v>0.009560102313911923</v>
+        <v>-0.05745185933792129</v>
       </c>
       <c r="D65">
-        <v>0.1051460297414762</v>
+        <v>-0.01518554497538336</v>
       </c>
       <c r="E65">
-        <v>-0.007342005639826761</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02035252241025273</v>
+      </c>
+      <c r="F65">
+        <v>-0.02926531486757691</v>
+      </c>
+      <c r="G65">
+        <v>0.01938139187489951</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004997688989491929</v>
+        <v>-0.05332354856427284</v>
       </c>
       <c r="C66">
-        <v>-0.01121471200308837</v>
+        <v>-0.1119548774114898</v>
       </c>
       <c r="D66">
-        <v>0.1128451843767563</v>
+        <v>-0.01183704997336782</v>
       </c>
       <c r="E66">
-        <v>0.01536544821968926</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02861449549345313</v>
+      </c>
+      <c r="F66">
+        <v>-0.0356121934307967</v>
+      </c>
+      <c r="G66">
+        <v>0.07057082143270936</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003306881154655243</v>
+        <v>-0.05539077410705236</v>
       </c>
       <c r="C67">
-        <v>0.05786080350686891</v>
+        <v>-0.03094890910029525</v>
       </c>
       <c r="D67">
-        <v>0.03632078028673733</v>
+        <v>0.005767980512974421</v>
       </c>
       <c r="E67">
-        <v>-0.005817830440722286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.001938794398844669</v>
+      </c>
+      <c r="F67">
+        <v>0.01489590116475922</v>
+      </c>
+      <c r="G67">
+        <v>0.06193192445840905</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05711908212088181</v>
+        <v>-0.139276880942968</v>
       </c>
       <c r="C68">
-        <v>0.229207580994989</v>
+        <v>0.2748608207620497</v>
       </c>
       <c r="D68">
-        <v>-0.1587582313599923</v>
+        <v>-0.003858702384190572</v>
       </c>
       <c r="E68">
-        <v>0.00415306498802373</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.006531583861070531</v>
+      </c>
+      <c r="F68">
+        <v>0.03261797155018988</v>
+      </c>
+      <c r="G68">
+        <v>0.02631329489161332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0008486717970625392</v>
+        <v>-0.08161384522620629</v>
       </c>
       <c r="C69">
-        <v>0.04242709828943682</v>
+        <v>-0.06774567630798907</v>
       </c>
       <c r="D69">
-        <v>0.06151413635060686</v>
+        <v>0.009293706047192977</v>
       </c>
       <c r="E69">
-        <v>-0.004339694763348083</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02763151748871799</v>
+      </c>
+      <c r="F69">
+        <v>0.03975273041601175</v>
+      </c>
+      <c r="G69">
+        <v>0.06609923207927254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04248350406268719</v>
+        <v>-0.1297368902514196</v>
       </c>
       <c r="C71">
-        <v>0.2034290905439106</v>
+        <v>0.2354426364415552</v>
       </c>
       <c r="D71">
-        <v>-0.1414727127693574</v>
+        <v>0.004888772171125438</v>
       </c>
       <c r="E71">
-        <v>-0.005706722706364959</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0250305043472573</v>
+      </c>
+      <c r="F71">
+        <v>0.01066737693839644</v>
+      </c>
+      <c r="G71">
+        <v>0.04421494146417264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0003311658343548538</v>
+        <v>-0.08760575921710857</v>
       </c>
       <c r="C72">
-        <v>0.04917899355103261</v>
+        <v>-0.0710522411371136</v>
       </c>
       <c r="D72">
-        <v>0.1293598917469286</v>
+        <v>0.008088398693641042</v>
       </c>
       <c r="E72">
-        <v>0.01038271350793109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002885888102808995</v>
+      </c>
+      <c r="F72">
+        <v>-0.04430968433966965</v>
+      </c>
+      <c r="G72">
+        <v>0.04835653898138977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05485943986033134</v>
+        <v>-0.3856472760441636</v>
       </c>
       <c r="C73">
-        <v>0.1903787344128618</v>
+        <v>-0.1049850093707001</v>
       </c>
       <c r="D73">
-        <v>0.1654913613208113</v>
+        <v>-0.02142630947236464</v>
       </c>
       <c r="E73">
-        <v>0.07421159525400137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06595262226152282</v>
+      </c>
+      <c r="F73">
+        <v>-0.5690613480311177</v>
+      </c>
+      <c r="G73">
+        <v>-0.2111945380440342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.003591699549589875</v>
+        <v>-0.1145151130159804</v>
       </c>
       <c r="C74">
-        <v>0.08226234224814929</v>
+        <v>-0.1108760931600872</v>
       </c>
       <c r="D74">
-        <v>0.1593359621217713</v>
+        <v>0.0104124880369743</v>
       </c>
       <c r="E74">
-        <v>0.01949183308880736</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01637160797159278</v>
+      </c>
+      <c r="F74">
+        <v>0.07336818615370465</v>
+      </c>
+      <c r="G74">
+        <v>0.04964808675646151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01285989796972632</v>
+        <v>-0.2506678358764191</v>
       </c>
       <c r="C75">
-        <v>0.1904956911243009</v>
+        <v>-0.1455178026491198</v>
       </c>
       <c r="D75">
-        <v>0.2862730022300907</v>
+        <v>0.02997733873863203</v>
       </c>
       <c r="E75">
-        <v>0.03937705291858291</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05694148236677174</v>
+      </c>
+      <c r="F75">
+        <v>0.1768821901594911</v>
+      </c>
+      <c r="G75">
+        <v>-0.06587690134208196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0009479312197184365</v>
+        <v>-0.1279653032164704</v>
       </c>
       <c r="C76">
-        <v>0.1214064475589197</v>
+        <v>-0.1142686902460216</v>
       </c>
       <c r="D76">
-        <v>0.2338809838500123</v>
+        <v>0.0206655726285703</v>
       </c>
       <c r="E76">
-        <v>-0.008531940654395493</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04755984901090227</v>
+      </c>
+      <c r="F76">
+        <v>0.1181708777416913</v>
+      </c>
+      <c r="G76">
+        <v>0.0210162055154379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0127169192258678</v>
+        <v>-0.06792657283509844</v>
       </c>
       <c r="C77">
-        <v>0.02087805117271034</v>
+        <v>-0.0575378545917273</v>
       </c>
       <c r="D77">
-        <v>0.04490578378992904</v>
+        <v>-0.01189815349874076</v>
       </c>
       <c r="E77">
-        <v>0.01158764673230788</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04993286136717622</v>
+      </c>
+      <c r="F77">
+        <v>-0.009263518299587981</v>
+      </c>
+      <c r="G77">
+        <v>0.06847755871444067</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004866448196876562</v>
+        <v>-0.04654281302737397</v>
       </c>
       <c r="C78">
-        <v>0.01641400596816776</v>
+        <v>-0.04902848098755527</v>
       </c>
       <c r="D78">
-        <v>0.0628534181025109</v>
+        <v>-0.004921990295735691</v>
       </c>
       <c r="E78">
-        <v>0.007937669005263196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01953938740667115</v>
+      </c>
+      <c r="F78">
+        <v>-0.03546728206989761</v>
+      </c>
+      <c r="G78">
+        <v>0.06505195639338891</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01611321552133806</v>
+        <v>-0.0581241339703516</v>
       </c>
       <c r="C80">
-        <v>0.09195276852833022</v>
+        <v>-0.06548838432991064</v>
       </c>
       <c r="D80">
-        <v>0.2274269955532437</v>
+        <v>-0.0107628988181473</v>
       </c>
       <c r="E80">
-        <v>-0.8442058684633712</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02199377960967173</v>
+      </c>
+      <c r="F80">
+        <v>-0.01648245280680951</v>
+      </c>
+      <c r="G80">
+        <v>0.6900146697130733</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008398535599225373</v>
+        <v>-0.142762198404324</v>
       </c>
       <c r="C81">
-        <v>0.115508033052295</v>
+        <v>-0.08929753185694728</v>
       </c>
       <c r="D81">
-        <v>0.1709981947587974</v>
+        <v>0.01537226354912653</v>
       </c>
       <c r="E81">
-        <v>0.004269116580631808</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03420289134391358</v>
+      </c>
+      <c r="F81">
+        <v>0.127390191495456</v>
+      </c>
+      <c r="G81">
+        <v>0.01312046717462092</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1197068826145995</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05810302585461088</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.006429212724191127</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08291478958760144</v>
+      </c>
+      <c r="F82">
+        <v>0.02122833679583071</v>
+      </c>
+      <c r="G82">
+        <v>0.03707211882378998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007402500916082024</v>
+        <v>-0.03349785858157978</v>
       </c>
       <c r="C83">
-        <v>0.02166800591548243</v>
+        <v>-0.02194967441477372</v>
       </c>
       <c r="D83">
-        <v>0.01933115436196756</v>
+        <v>-0.005869825493032236</v>
       </c>
       <c r="E83">
-        <v>-0.00341956239706649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.03073649169510291</v>
+      </c>
+      <c r="F83">
+        <v>-0.0370183735057445</v>
+      </c>
+      <c r="G83">
+        <v>0.05217197727705975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.0188788920911973</v>
+        <v>-0.2186715454323951</v>
       </c>
       <c r="C85">
-        <v>0.1492132449634814</v>
+        <v>-0.1420745124656273</v>
       </c>
       <c r="D85">
-        <v>0.2624031347350714</v>
+        <v>0.0176274154733969</v>
       </c>
       <c r="E85">
-        <v>0.03840663428823388</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09584825970056357</v>
+      </c>
+      <c r="F85">
+        <v>0.1379716735779057</v>
+      </c>
+      <c r="G85">
+        <v>-0.1096624739049944</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008433421717782602</v>
+        <v>-0.01710400284980301</v>
       </c>
       <c r="C86">
-        <v>0.03042984811513903</v>
+        <v>-0.02193940608764963</v>
       </c>
       <c r="D86">
-        <v>0.00499911038956275</v>
+        <v>-0.01093080185354102</v>
       </c>
       <c r="E86">
-        <v>0.02721544693376298</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04088767651336359</v>
+      </c>
+      <c r="F86">
+        <v>-0.0409499555919724</v>
+      </c>
+      <c r="G86">
+        <v>0.1338649783260994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00787058916287346</v>
+        <v>-0.02398734934030964</v>
       </c>
       <c r="C87">
-        <v>0.01299042248981086</v>
+        <v>-0.02534317491476657</v>
       </c>
       <c r="D87">
-        <v>0.03928738850525516</v>
+        <v>-0.01094209655289601</v>
       </c>
       <c r="E87">
-        <v>0.00718793046363706</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08429127300207218</v>
+      </c>
+      <c r="F87">
+        <v>-0.02078934093564485</v>
+      </c>
+      <c r="G87">
+        <v>0.09431018657525801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02821979086269758</v>
+        <v>-0.09147249069689593</v>
       </c>
       <c r="C88">
-        <v>0.03513382671890659</v>
+        <v>-0.06445186338858531</v>
       </c>
       <c r="D88">
-        <v>0.03263060038836579</v>
+        <v>-0.02291407554683483</v>
       </c>
       <c r="E88">
-        <v>-0.004411603345033149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01202507856866449</v>
+      </c>
+      <c r="F88">
+        <v>0.02251645205768507</v>
+      </c>
+      <c r="G88">
+        <v>0.06523270691477633</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07919074470694612</v>
+        <v>-0.2150984975791588</v>
       </c>
       <c r="C89">
-        <v>0.3640269089736234</v>
+        <v>0.3742923481954804</v>
       </c>
       <c r="D89">
-        <v>-0.2476595147045509</v>
+        <v>0.003625280947387411</v>
       </c>
       <c r="E89">
-        <v>-0.013393740809051</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02223970091290154</v>
+      </c>
+      <c r="F89">
+        <v>0.02628075293552565</v>
+      </c>
+      <c r="G89">
+        <v>0.05146222054175861</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06058204081974489</v>
+        <v>-0.1932935195322112</v>
       </c>
       <c r="C90">
-        <v>0.2819875953265378</v>
+        <v>0.3336376526227492</v>
       </c>
       <c r="D90">
-        <v>-0.2183024836525355</v>
+        <v>0.008023010884828938</v>
       </c>
       <c r="E90">
-        <v>0.004545802179432696</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01999570950084105</v>
+      </c>
+      <c r="F90">
+        <v>0.04993696096947035</v>
+      </c>
+      <c r="G90">
+        <v>0.01801782679308998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.008476834920161385</v>
+        <v>-0.1957483261214246</v>
       </c>
       <c r="C91">
-        <v>0.1637017294503268</v>
+        <v>-0.1361125431893399</v>
       </c>
       <c r="D91">
-        <v>0.2428791029248603</v>
+        <v>0.02356525577584445</v>
       </c>
       <c r="E91">
-        <v>0.009299436221441503</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07143378961048469</v>
+      </c>
+      <c r="F91">
+        <v>0.1568417997090907</v>
+      </c>
+      <c r="G91">
+        <v>0.002665932433646869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02788358289056082</v>
+        <v>-0.1958083926046547</v>
       </c>
       <c r="C92">
-        <v>0.3080522024250102</v>
+        <v>0.2673816476961545</v>
       </c>
       <c r="D92">
-        <v>-0.09633985122839392</v>
+        <v>0.04312164624056541</v>
       </c>
       <c r="E92">
-        <v>0.003236183420847196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01430144697621704</v>
+      </c>
+      <c r="F92">
+        <v>0.05658847732711778</v>
+      </c>
+      <c r="G92">
+        <v>0.1070427673148337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05910522634961037</v>
+        <v>-0.2187392611139102</v>
       </c>
       <c r="C93">
-        <v>0.3122021860803191</v>
+        <v>0.3285177543074893</v>
       </c>
       <c r="D93">
-        <v>-0.2070601896077923</v>
+        <v>0.0144262681315175</v>
       </c>
       <c r="E93">
-        <v>0.0315709205714348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.005129311462589623</v>
+      </c>
+      <c r="F93">
+        <v>0.03488955685692586</v>
+      </c>
+      <c r="G93">
+        <v>0.01425392907587966</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03260783211377882</v>
+        <v>-0.317085595493772</v>
       </c>
       <c r="C94">
-        <v>0.1942401918926103</v>
+        <v>-0.1627793140923507</v>
       </c>
       <c r="D94">
-        <v>0.2427282766181221</v>
+        <v>0.01712856282680614</v>
       </c>
       <c r="E94">
-        <v>0.03010669741053561</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1633336752987326</v>
+      </c>
+      <c r="F94">
+        <v>0.4864010675600758</v>
+      </c>
+      <c r="G94">
+        <v>-0.2504073467245618</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004012944778408562</v>
+        <v>-0.09674896958243688</v>
       </c>
       <c r="C95">
-        <v>0.04160539433865206</v>
+        <v>-0.08147982253980995</v>
       </c>
       <c r="D95">
-        <v>0.08482934802238268</v>
+        <v>0.008325159299619618</v>
       </c>
       <c r="E95">
-        <v>0.1326420699458536</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0638592442215062</v>
+      </c>
+      <c r="F95">
+        <v>-0.1817830576811253</v>
+      </c>
+      <c r="G95">
+        <v>-0.05519489799454743</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01591390111479513</v>
+        <v>-0.2002142035216924</v>
       </c>
       <c r="C98">
-        <v>0.1697507177323879</v>
+        <v>-0.04142785337775762</v>
       </c>
       <c r="D98">
-        <v>0.1133055739323305</v>
+        <v>0.01275436971632289</v>
       </c>
       <c r="E98">
-        <v>0.05594408959586302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06527882389537815</v>
+      </c>
+      <c r="F98">
+        <v>-0.2473080755688249</v>
+      </c>
+      <c r="G98">
+        <v>-0.03016249719712866</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008047227153681074</v>
+        <v>-0.0123917549843034</v>
       </c>
       <c r="C101">
-        <v>0.01789341327750916</v>
+        <v>-0.020556725036194</v>
       </c>
       <c r="D101">
-        <v>0.009882352641885571</v>
+        <v>-0.007230631547465424</v>
       </c>
       <c r="E101">
-        <v>-0.008456937077688367</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.006247058227518233</v>
+      </c>
+      <c r="F101">
+        <v>0.01829149006664795</v>
+      </c>
+      <c r="G101">
+        <v>0.06877470309699442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01865439399279299</v>
+        <v>-0.1202121519872137</v>
       </c>
       <c r="C102">
-        <v>0.08466954593281131</v>
+        <v>-0.08133152088586283</v>
       </c>
       <c r="D102">
-        <v>0.125676167275362</v>
+        <v>-0.001224374031541258</v>
       </c>
       <c r="E102">
-        <v>0.01049622694722585</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03297992970992073</v>
+      </c>
+      <c r="F102">
+        <v>0.04071120503135298</v>
+      </c>
+      <c r="G102">
+        <v>-0.006617591596211224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002036794064952963</v>
+        <v>-0.003295560250306173</v>
       </c>
       <c r="C103">
-        <v>0.01214589276933684</v>
+        <v>-0.002473343350588585</v>
       </c>
       <c r="D103">
-        <v>0.02024425908956866</v>
+        <v>-0.0001072649501486885</v>
       </c>
       <c r="E103">
-        <v>-0.01492951431467791</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001822198594551153</v>
+      </c>
+      <c r="F103">
+        <v>0.00539995613364384</v>
+      </c>
+      <c r="G103">
+        <v>0.01328707259374829</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9760124688567197</v>
+        <v>-0.02370529691045778</v>
       </c>
       <c r="C104">
-        <v>-0.1712972988484234</v>
+        <v>0.03551450100610311</v>
       </c>
       <c r="D104">
-        <v>-0.004505972049802939</v>
+        <v>-0.9875253287693336</v>
       </c>
       <c r="E104">
-        <v>-0.03707441888045534</v>
+        <v>0.04458209384839198</v>
+      </c>
+      <c r="F104">
+        <v>0.04011196302098926</v>
+      </c>
+      <c r="G104">
+        <v>-0.01919925088700705</v>
       </c>
     </row>
   </sheetData>
